--- a/files/04-bad-metadata.xlsx
+++ b/files/04-bad-metadata.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="121">
   <si>
     <t>Sample</t>
   </si>
@@ -318,9 +318,6 @@
     <t>C5</t>
   </si>
   <si>
-    <t>Study date  2019-12-05 to 2020-01-05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Biomas
 </t>
   </si>
@@ -382,12 +379,6 @@
     <t>Starch mg/g FW</t>
   </si>
   <si>
-    <t>Sucrose(mg/g)</t>
-  </si>
-  <si>
-    <t>0.0018g/g</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -442,9 +433,6 @@
     <t>135mg</t>
   </si>
   <si>
-    <t>295 mg</t>
-  </si>
-  <si>
     <t>141mg</t>
   </si>
   <si>
@@ -461,12 +449,40 @@
   </si>
   <si>
     <t>Strain</t>
+  </si>
+  <si>
+    <t>By Sosa M; Pintos A</t>
+  </si>
+  <si>
+    <t>Study dates  2019-12-05 to 2020-01-05</t>
+  </si>
+  <si>
+    <t>0.0018 g/g</t>
+  </si>
+  <si>
+    <t>Period analysed in BioDare</t>
+  </si>
+  <si>
+    <t>If not indicated differently metabolites reported per g of fresh weight of 6-week-old plant leaf rosettes</t>
+  </si>
+  <si>
+    <t>695 mg</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Sucrose
+(mg/g)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -653,6 +669,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,18 +993,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
@@ -999,21 +1025,21 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C2" s="31"/>
-      <c r="D2" s="31" t="s">
-        <v>69</v>
+      <c r="D2" t="s">
+        <v>116</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -1021,88 +1047,60 @@
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
     </row>
-    <row r="4" spans="1:13" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="J5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="18">
-        <v>6</v>
-      </c>
-      <c r="G5" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="L5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" s="18">
-        <v>24.2</v>
-      </c>
-      <c r="M5">
-        <v>8.1</v>
+      <c r="M5" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>36</v>
@@ -1111,188 +1109,188 @@
         <v>25</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="18">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1.6000000000000001E-3</v>
+        <v>1.2</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L6" s="18">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="M6">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="18">
+        <v>23.5</v>
+      </c>
+      <c r="M7">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="18">
+      <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="18">
+        <v>5</v>
+      </c>
+      <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H8" s="18">
         <v>1.4E-3</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="18">
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="18">
         <v>24.5</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>7.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="33">
-        <v>3</v>
-      </c>
-      <c r="G8" s="33">
-        <v>0.6</v>
-      </c>
-      <c r="H8" s="33">
-        <v>2E-3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="8">
-        <v>27.1</v>
-      </c>
-      <c r="M8">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="33">
+        <v>3</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="33">
+        <v>2E-3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="8">
+        <v>27.1</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="33">
         <v>0</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G10" s="33">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H10" s="33">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="K9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="8">
+      <c r="K10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="8">
         <v>30.1</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="24">
-        <v>0.2104</v>
-      </c>
-      <c r="F10" s="24">
-        <v>6.2</v>
-      </c>
-      <c r="G10" s="24">
-        <v>1.3</v>
-      </c>
-      <c r="H10" s="24">
-        <v>2.1000000000000003E-3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" s="18">
-        <v>24.5</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>36</v>
@@ -1301,419 +1299,467 @@
         <v>26</v>
       </c>
       <c r="E11" s="24">
-        <v>0.24349999999999999</v>
+        <v>0.2104</v>
       </c>
       <c r="F11" s="24">
+        <v>6.2</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="H11" s="24">
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="J11" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="24">
-        <v>1.2</v>
-      </c>
-      <c r="H11" s="24">
-        <v>1.9E-3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>8</v>
-      </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L11" s="18">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="M11">
-        <v>6.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>77</v>
+      <c r="E12" s="24">
+        <v>0.24349999999999999</v>
       </c>
       <c r="F12" s="24">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>88</v>
+        <v>1.2</v>
+      </c>
+      <c r="H12" s="24">
+        <v>1.9E-3</v>
       </c>
       <c r="J12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L12" s="18">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="M12">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="24">
-        <v>4.9000000000000004</v>
+        <v>5.8</v>
       </c>
       <c r="G13" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="H13" s="24">
-        <v>2.2000000000000001E-3</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="30">
-        <v>-1</v>
+        <v>98</v>
+      </c>
+      <c r="L13" s="18">
+        <v>25</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="24">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="30">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="24">
         <v>5.9</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G15" s="24">
         <v>0.9</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H15" s="24">
         <v>2.1000000000000003E-3</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J15" t="s">
         <v>21</v>
       </c>
-      <c r="K14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="8">
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="8">
         <v>31.1</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="18">
-        <v>6</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="H15" s="18">
-        <v>1.8E-3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="18">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="18">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H16" s="18">
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="18">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="G17" s="18">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H17" s="18">
-        <v>1.4E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F18" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H18" s="18">
-        <v>2E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="18">
+        <v>3</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="H19" s="18">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
+      <c r="C20" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H20" s="18">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C21" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="8">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="8">
-        <v>6</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="22" t="s">
+      <c r="D22" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="8">
-        <v>7</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H22" s="8">
-        <v>2.0999999999999999E-3</v>
-      </c>
+      <c r="E22" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="F23" s="8">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="G23" s="8">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H23" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="F24" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="H24" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="C25" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="8">
         <v>5</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="8">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="20" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="24" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="C27" s="24"/>
+      <c r="E27" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="43">
+        <v>44419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/files/04-bad-metadata.xlsx
+++ b/files/04-bad-metadata.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
   <si>
     <t>Sample</t>
   </si>
@@ -382,9 +382,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
@@ -449,12 +446,6 @@
   </si>
   <si>
     <t>Strain</t>
-  </si>
-  <si>
-    <t>By Sosa M; Pintos A</t>
-  </si>
-  <si>
-    <t>Study dates  2019-12-05 to 2020-01-05</t>
   </si>
   <si>
     <t>0.0018 g/g</t>
@@ -474,6 +465,12 @@
   <si>
     <t>Sucrose
 (mg/g)</t>
+  </si>
+  <si>
+    <t>Study 2019-12-05 to 2020-01-05</t>
+  </si>
+  <si>
+    <t>Cell</t>
   </si>
 </sst>
 </file>
@@ -481,7 +478,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -669,6 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -678,7 +676,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,9 +1008,6 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="31"/>
@@ -1025,21 +1019,21 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -1054,11 +1048,11 @@
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>111</v>
+      <c r="G4" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1066,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1080,19 +1074,19 @@
       <c r="F5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="J5" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1118,13 +1112,13 @@
         <v>1.2</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J6" t="s">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L6" s="18">
         <v>24.2</v>
@@ -1162,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L7" s="18">
         <v>23.5</v>
@@ -1200,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L8" s="18">
         <v>24.5</v>
@@ -1238,7 +1232,7 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" s="8">
         <v>27.1</v>
@@ -1276,7 +1270,7 @@
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L10" s="8">
         <v>30.1</v>
@@ -1314,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L11" s="18">
         <v>24.5</v>
@@ -1352,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L12" s="18">
         <v>24.1</v>
@@ -1390,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L13" s="18">
         <v>25</v>
@@ -1466,7 +1460,7 @@
         <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L15" s="8">
         <v>31.1</v>
@@ -1486,7 +1480,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>80</v>
@@ -1512,7 +1506,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>81</v>
@@ -1538,7 +1532,7 @@
         <v>84</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>82</v>
@@ -1564,7 +1558,7 @@
         <v>85</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>73</v>
@@ -1590,7 +1584,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>79</v>
@@ -1614,10 +1608,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="8">
         <v>6</v>
@@ -1631,7 +1625,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>13</v>
@@ -1640,10 +1634,10 @@
         <v>84</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -1651,7 +1645,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>12</v>
@@ -1660,10 +1654,10 @@
         <v>83</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="8">
         <v>7</v>
@@ -1677,7 +1671,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>14</v>
@@ -1686,10 +1680,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="8">
         <v>3.1</v>
@@ -1703,7 +1697,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>15</v>
@@ -1712,7 +1706,7 @@
         <v>86</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>79</v>
@@ -1746,9 +1740,9 @@
       </c>
       <c r="C27" s="24"/>
       <c r="E27" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="43">
+        <v>116</v>
+      </c>
+      <c r="F27" s="40">
         <v>44419</v>
       </c>
     </row>
